--- a/5 discriminant analysis/5.2 Bayes判别.xlsx
+++ b/5 discriminant analysis/5.2 Bayes判别.xlsx
@@ -4,13 +4,14 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22262" windowHeight="12644"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12647"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <externalReferences>
     <externalReference r:id="rId2"/>
+    <externalReference r:id="rId3"/>
   </externalReferences>
   <calcPr calcId="162913"/>
   <extLst>
@@ -921,10 +922,10 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -950,15 +951,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>10</xdr:col>
-          <xdr:colOff>44009</xdr:colOff>
+          <xdr:colOff>42333</xdr:colOff>
           <xdr:row>5</xdr:row>
-          <xdr:rowOff>63568</xdr:rowOff>
+          <xdr:rowOff>63500</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>20</xdr:col>
-          <xdr:colOff>171144</xdr:colOff>
+          <xdr:colOff>169333</xdr:colOff>
           <xdr:row>7</xdr:row>
-          <xdr:rowOff>122246</xdr:rowOff>
+          <xdr:rowOff>122767</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1002,15 +1003,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>10</xdr:col>
-          <xdr:colOff>19559</xdr:colOff>
+          <xdr:colOff>21167</xdr:colOff>
           <xdr:row>9</xdr:row>
-          <xdr:rowOff>83127</xdr:rowOff>
+          <xdr:rowOff>84667</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>18</xdr:col>
-          <xdr:colOff>532993</xdr:colOff>
+          <xdr:colOff>533400</xdr:colOff>
           <xdr:row>12</xdr:row>
-          <xdr:rowOff>24449</xdr:rowOff>
+          <xdr:rowOff>25400</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1092,15 +1093,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>21</xdr:col>
-          <xdr:colOff>24449</xdr:colOff>
+          <xdr:colOff>25400</xdr:colOff>
           <xdr:row>1</xdr:row>
-          <xdr:rowOff>112466</xdr:rowOff>
+          <xdr:rowOff>114300</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>26</xdr:col>
-          <xdr:colOff>224933</xdr:colOff>
+          <xdr:colOff>224367</xdr:colOff>
           <xdr:row>4</xdr:row>
-          <xdr:rowOff>29339</xdr:rowOff>
+          <xdr:rowOff>29633</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1144,15 +1145,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>356958</xdr:colOff>
+          <xdr:colOff>355600</xdr:colOff>
           <xdr:row>17</xdr:row>
-          <xdr:rowOff>88017</xdr:rowOff>
+          <xdr:rowOff>88900</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
-          <xdr:colOff>327619</xdr:colOff>
+          <xdr:colOff>325967</xdr:colOff>
           <xdr:row>23</xdr:row>
-          <xdr:rowOff>34229</xdr:rowOff>
+          <xdr:rowOff>33867</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1219,9 +1220,66 @@
       <sheetName val="MSSD"/>
       <sheetName val="Dict"/>
       <sheetName val="ADict"/>
+      <sheetName val="XRealStats"/>
     </sheetNames>
     <definedNames>
       <definedName name="DET"/>
+    </definedNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11"/>
+      <sheetData sheetId="12"/>
+      <sheetData sheetId="13"/>
+      <sheetData sheetId="14"/>
+      <sheetData sheetId="15"/>
+      <sheetData sheetId="16"/>
+      <sheetData sheetId="17"/>
+      <sheetData sheetId="18"/>
+      <sheetData sheetId="19"/>
+      <sheetData sheetId="20"/>
+      <sheetData sheetId="21" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Config"/>
+      <sheetName val="Wilcoxon Table"/>
+      <sheetName val="Mann Table"/>
+      <sheetName val="Runs Table"/>
+      <sheetName val="KS Table"/>
+      <sheetName val="KS2 Table"/>
+      <sheetName val="Lil Table"/>
+      <sheetName val="AD Table"/>
+      <sheetName val="AD2 Table"/>
+      <sheetName val="SW Table"/>
+      <sheetName val="Stud. Q Table"/>
+      <sheetName val="Stud. Q Table 2"/>
+      <sheetName val="Sp Rho Table"/>
+      <sheetName val="Ken Tau Table"/>
+      <sheetName val="Durbin Table"/>
+      <sheetName val="Dunnett Table"/>
+      <sheetName val="Dunnett 1"/>
+      <sheetName val="Prime"/>
+      <sheetName val="MSSD"/>
+      <sheetName val="Dict"/>
+      <sheetName val="ADict"/>
+    </sheetNames>
+    <definedNames>
       <definedName name="MSUB"/>
     </definedNames>
     <sheetDataSet>
@@ -1517,21 +1575,21 @@
   <dimension ref="A1:X33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="V32" sqref="V32"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9.05859375" defaultRowHeight="14" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="4.53125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="4.86328125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="9.06640625" style="1"/>
-    <col min="4" max="4" width="7.3984375" style="1" customWidth="1"/>
-    <col min="5" max="7" width="9.06640625" style="1"/>
-    <col min="8" max="8" width="12.265625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.06640625" style="1"/>
+    <col min="1" max="1" width="4.52734375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="4.87890625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="9.05859375" style="1"/>
+    <col min="4" max="4" width="7.41015625" style="1" customWidth="1"/>
+    <col min="5" max="7" width="9.05859375" style="1"/>
+    <col min="8" max="8" width="12.234375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.05859375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="17.350000000000001" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:24" ht="17" x14ac:dyDescent="0.6">
       <c r="A1" s="3"/>
       <c r="B1" s="4" t="s">
         <v>8</v>
@@ -1567,8 +1625,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:24" ht="14.65" x14ac:dyDescent="0.4">
-      <c r="A2" s="9" t="s">
+    <row r="2" spans="1:24" ht="14.7" x14ac:dyDescent="0.45">
+      <c r="A2" s="10" t="s">
         <v>11</v>
       </c>
       <c r="B2" s="5">
@@ -1581,11 +1639,11 @@
         <v>-2</v>
       </c>
       <c r="E2" s="3">
-        <f t="array" ref="E2">MMULT(MMULT(TRANSPOSE([1]!MSUB(TRANSPOSE(C2:D2),K$20:K$21)),MINVERSE(K$16:L$17)),[1]!MSUB(TRANSPOSE(C2:D2),K$20:K$21))+K$24-2*LN(K$3)</f>
+        <f t="array" ref="E2">MMULT(MMULT([2]!MSUB(C2:D2,K$20:L$20),MINVERSE(K$16:L$17)),TRANSPOSE([2]!MSUB(C2:D2,K$20:L$20)))+K$24-2*LN(K$3)</f>
         <v>0.94230409012393168</v>
       </c>
       <c r="F2" s="3">
-        <f t="array" ref="F2">MMULT(MMULT(TRANSPOSE([1]!MSUB(TRANSPOSE(C2:D2),N$20:N$21)),MINVERSE(N$16:O$17)),[1]!MSUB(TRANSPOSE(C2:D2),N$20:N$21))+N$24-2*LN(N$3)</f>
+        <f t="array" ref="F2">MMULT(MMULT([2]!MSUB(C2:D2,N$20:O$20),MINVERSE(N$16:O$17)),TRANSPOSE([2]!MSUB(C2:D2,N$20:O$20)))+N$24-2*LN(N$3)</f>
         <v>25.90709014986173</v>
       </c>
       <c r="G2" s="3">
@@ -1607,8 +1665,8 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.4">
-      <c r="A3" s="9"/>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.45">
+      <c r="A3" s="10"/>
       <c r="B3" s="5">
         <v>1</v>
       </c>
@@ -1619,11 +1677,11 @@
         <v>-2.4</v>
       </c>
       <c r="E3" s="3">
-        <f t="array" ref="E3">MMULT(MMULT(TRANSPOSE([1]!MSUB(TRANSPOSE(C3:D3),K$20:K$21)),MINVERSE(K$16:L$17)),[1]!MSUB(TRANSPOSE(C3:D3),K$20:K$21))+K$24-2*LN(K$3)</f>
+        <f t="array" ref="E3">MMULT(MMULT([2]!MSUB(C3:D3,K$20:L$20),MINVERSE(K$16:L$17)),TRANSPOSE([2]!MSUB(C3:D3,K$20:L$20)))+K$24-2*LN(K$3)</f>
         <v>2.1585504410807874</v>
       </c>
       <c r="F3" s="3">
-        <f t="array" ref="F3">MMULT(MMULT(TRANSPOSE([1]!MSUB(TRANSPOSE(C3:D3),N$20:N$21)),MINVERSE(N$16:O$17)),[1]!MSUB(TRANSPOSE(C3:D3),N$20:N$21))+N$24-2*LN(N$3)</f>
+        <f t="array" ref="F3">MMULT(MMULT([2]!MSUB(C3:D3,N$20:O$20),MINVERSE(N$16:O$17)),TRANSPOSE([2]!MSUB(C3:D3,N$20:O$20)))+N$24-2*LN(N$3)</f>
         <v>18.997484318110189</v>
       </c>
       <c r="G3" s="3">
@@ -1647,8 +1705,8 @@
         <v>0.5714285714285714</v>
       </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.4">
-      <c r="A4" s="9"/>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.45">
+      <c r="A4" s="10"/>
       <c r="B4" s="5">
         <v>1</v>
       </c>
@@ -1659,11 +1717,11 @@
         <v>-3</v>
       </c>
       <c r="E4" s="3">
-        <f t="array" ref="E4">MMULT(MMULT(TRANSPOSE([1]!MSUB(TRANSPOSE(C4:D4),K$20:K$21)),MINVERSE(K$16:L$17)),[1]!MSUB(TRANSPOSE(C4:D4),K$20:K$21))+K$24-2*LN(K$3)</f>
+        <f t="array" ref="E4">MMULT(MMULT([2]!MSUB(C4:D4,K$20:L$20),MINVERSE(K$16:L$17)),TRANSPOSE([2]!MSUB(C4:D4,K$20:L$20)))+K$24-2*LN(K$3)</f>
         <v>1.1829787576555566</v>
       </c>
       <c r="F4" s="3">
-        <f t="array" ref="F4">MMULT(MMULT(TRANSPOSE([1]!MSUB(TRANSPOSE(C4:D4),N$20:N$21)),MINVERSE(N$16:O$17)),[1]!MSUB(TRANSPOSE(C4:D4),N$20:N$21))+N$24-2*LN(N$3)</f>
+        <f t="array" ref="F4">MMULT(MMULT([2]!MSUB(C4:D4,N$20:O$20),MINVERSE(N$16:O$17)),TRANSPOSE([2]!MSUB(C4:D4,N$20:O$20)))+N$24-2*LN(N$3)</f>
         <v>80.127477048613812</v>
       </c>
       <c r="G4" s="3">
@@ -1679,8 +1737,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:24" ht="14.65" x14ac:dyDescent="0.4">
-      <c r="A5" s="9"/>
+    <row r="5" spans="1:24" ht="14.7" x14ac:dyDescent="0.45">
+      <c r="A5" s="10"/>
       <c r="B5" s="5">
         <v>1</v>
       </c>
@@ -1691,11 +1749,11 @@
         <v>-1.9</v>
       </c>
       <c r="E5" s="3">
-        <f t="array" ref="E5">MMULT(MMULT(TRANSPOSE([1]!MSUB(TRANSPOSE(C5:D5),K$20:K$21)),MINVERSE(K$16:L$17)),[1]!MSUB(TRANSPOSE(C5:D5),K$20:K$21))+K$24-2*LN(K$3)</f>
+        <f t="array" ref="E5">MMULT(MMULT([2]!MSUB(C5:D5,K$20:L$20),MINVERSE(K$16:L$17)),TRANSPOSE([2]!MSUB(C5:D5,K$20:L$20)))+K$24-2*LN(K$3)</f>
         <v>1.3873251734842953</v>
       </c>
       <c r="F5" s="3">
-        <f t="array" ref="F5">MMULT(MMULT(TRANSPOSE([1]!MSUB(TRANSPOSE(C5:D5),N$20:N$21)),MINVERSE(N$16:O$17)),[1]!MSUB(TRANSPOSE(C5:D5),N$20:N$21))+N$24-2*LN(N$3)</f>
+        <f t="array" ref="F5">MMULT(MMULT([2]!MSUB(C5:D5,N$20:O$20),MINVERSE(N$16:O$17)),TRANSPOSE([2]!MSUB(C5:D5,N$20:O$20)))+N$24-2*LN(N$3)</f>
         <v>6.8893303663311674</v>
       </c>
       <c r="G5" s="3">
@@ -1714,8 +1772,8 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:24" ht="14.65" x14ac:dyDescent="0.4">
-      <c r="A6" s="9"/>
+    <row r="6" spans="1:24" ht="14.7" x14ac:dyDescent="0.45">
+      <c r="A6" s="10"/>
       <c r="B6" s="5">
         <v>1</v>
       </c>
@@ -1726,11 +1784,11 @@
         <v>-2.1</v>
       </c>
       <c r="E6" s="3">
-        <f t="array" ref="E6">MMULT(MMULT(TRANSPOSE([1]!MSUB(TRANSPOSE(C6:D6),K$20:K$21)),MINVERSE(K$16:L$17)),[1]!MSUB(TRANSPOSE(C6:D6),K$20:K$21))+K$24-2*LN(K$3)</f>
+        <f t="array" ref="E6">MMULT(MMULT([2]!MSUB(C6:D6,K$20:L$20),MINVERSE(K$16:L$17)),TRANSPOSE([2]!MSUB(C6:D6,K$20:L$20)))+K$24-2*LN(K$3)</f>
         <v>1.7588788549633718</v>
       </c>
       <c r="F6" s="3">
-        <f t="array" ref="F6">MMULT(MMULT(TRANSPOSE([1]!MSUB(TRANSPOSE(C6:D6),N$20:N$21)),MINVERSE(N$16:O$17)),[1]!MSUB(TRANSPOSE(C6:D6),N$20:N$21))+N$24-2*LN(N$3)</f>
+        <f t="array" ref="F6">MMULT(MMULT([2]!MSUB(C6:D6,N$20:O$20),MINVERSE(N$16:O$17)),TRANSPOSE([2]!MSUB(C6:D6,N$20:O$20)))+N$24-2*LN(N$3)</f>
         <v>41.711510407524969</v>
       </c>
       <c r="G6" s="3">
@@ -1752,8 +1810,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.4">
-      <c r="A7" s="9"/>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.45">
+      <c r="A7" s="10"/>
       <c r="B7" s="5">
         <v>1</v>
       </c>
@@ -1764,11 +1822,11 @@
         <v>-3.1</v>
       </c>
       <c r="E7" s="3">
-        <f t="array" ref="E7">MMULT(MMULT(TRANSPOSE([1]!MSUB(TRANSPOSE(C7:D7),K$20:K$21)),MINVERSE(K$16:L$17)),[1]!MSUB(TRANSPOSE(C7:D7),K$20:K$21))+K$24-2*LN(K$3)</f>
+        <f t="array" ref="E7">MMULT(MMULT([2]!MSUB(C7:D7,K$20:L$20),MINVERSE(K$16:L$17)),TRANSPOSE([2]!MSUB(C7:D7,K$20:L$20)))+K$24-2*LN(K$3)</f>
         <v>1.9057933862640541</v>
       </c>
       <c r="F7" s="3">
-        <f t="array" ref="F7">MMULT(MMULT(TRANSPOSE([1]!MSUB(TRANSPOSE(C7:D7),N$20:N$21)),MINVERSE(N$16:O$17)),[1]!MSUB(TRANSPOSE(C7:D7),N$20:N$21))+N$24-2*LN(N$3)</f>
+        <f t="array" ref="F7">MMULT(MMULT([2]!MSUB(C7:D7,N$20:O$20),MINVERSE(N$16:O$17)),TRANSPOSE([2]!MSUB(C7:D7,N$20:O$20)))+N$24-2*LN(N$3)</f>
         <v>107.91403655751884</v>
       </c>
       <c r="G7" s="3">
@@ -1784,8 +1842,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.4">
-      <c r="A8" s="9" t="s">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.45">
+      <c r="A8" s="10" t="s">
         <v>6</v>
       </c>
       <c r="B8" s="5">
@@ -1798,11 +1856,11 @@
         <v>-0.7</v>
       </c>
       <c r="E8" s="3">
-        <f t="array" ref="E8">MMULT(MMULT(TRANSPOSE([1]!MSUB(TRANSPOSE(C8:D8),K$20:K$21)),MINVERSE(K$16:L$17)),[1]!MSUB(TRANSPOSE(C8:D8),K$20:K$21))+K$24-2*LN(K$3)</f>
+        <f t="array" ref="E8">MMULT(MMULT([2]!MSUB(C8:D8,K$20:L$20),MINVERSE(K$16:L$17)),TRANSPOSE([2]!MSUB(C8:D8,K$20:L$20)))+K$24-2*LN(K$3)</f>
         <v>12.360403344097334</v>
       </c>
       <c r="F8" s="3">
-        <f t="array" ref="F8">MMULT(MMULT(TRANSPOSE([1]!MSUB(TRANSPOSE(C8:D8),N$20:N$21)),MINVERSE(N$16:O$17)),[1]!MSUB(TRANSPOSE(C8:D8),N$20:N$21))+N$24-2*LN(N$3)</f>
+        <f t="array" ref="F8">MMULT(MMULT([2]!MSUB(C8:D8,N$20:O$20),MINVERSE(N$16:O$17)),TRANSPOSE([2]!MSUB(C8:D8,N$20:O$20)))+N$24-2*LN(N$3)</f>
         <v>0.22094055978054139</v>
       </c>
       <c r="G8" s="3">
@@ -1818,8 +1876,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:24" ht="14.65" x14ac:dyDescent="0.4">
-      <c r="A9" s="9"/>
+    <row r="9" spans="1:24" ht="14.7" x14ac:dyDescent="0.45">
+      <c r="A9" s="10"/>
       <c r="B9" s="5">
         <v>2</v>
       </c>
@@ -1830,11 +1888,11 @@
         <v>-1.4</v>
       </c>
       <c r="E9" s="3">
-        <f t="array" ref="E9">MMULT(MMULT(TRANSPOSE([1]!MSUB(TRANSPOSE(C9:D9),K$20:K$21)),MINVERSE(K$16:L$17)),[1]!MSUB(TRANSPOSE(C9:D9),K$20:K$21))+K$24-2*LN(K$3)</f>
+        <f t="array" ref="E9">MMULT(MMULT([2]!MSUB(C9:D9,K$20:L$20),MINVERSE(K$16:L$17)),TRANSPOSE([2]!MSUB(C9:D9,K$20:L$20)))+K$24-2*LN(K$3)</f>
         <v>6.2326057443568192</v>
       </c>
       <c r="F9" s="3">
-        <f t="array" ref="F9">MMULT(MMULT(TRANSPOSE([1]!MSUB(TRANSPOSE(C9:D9),N$20:N$21)),MINVERSE(N$16:O$17)),[1]!MSUB(TRANSPOSE(C9:D9),N$20:N$21))+N$24-2*LN(N$3)</f>
+        <f t="array" ref="F9">MMULT(MMULT([2]!MSUB(C9:D9,N$20:O$20),MINVERSE(N$16:O$17)),TRANSPOSE([2]!MSUB(C9:D9,N$20:O$20)))+N$24-2*LN(N$3)</f>
         <v>-0.85354148860201917</v>
       </c>
       <c r="G9" s="3">
@@ -1853,8 +1911,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.4">
-      <c r="A10" s="9"/>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.45">
+      <c r="A10" s="10"/>
       <c r="B10" s="5">
         <v>2</v>
       </c>
@@ -1865,11 +1923,11 @@
         <v>-0.8</v>
       </c>
       <c r="E10" s="3">
-        <f t="array" ref="E10">MMULT(MMULT(TRANSPOSE([1]!MSUB(TRANSPOSE(C10:D10),K$20:K$21)),MINVERSE(K$16:L$17)),[1]!MSUB(TRANSPOSE(C10:D10),K$20:K$21))+K$24-2*LN(K$3)</f>
+        <f t="array" ref="E10">MMULT(MMULT([2]!MSUB(C10:D10,K$20:L$20),MINVERSE(K$16:L$17)),TRANSPOSE([2]!MSUB(C10:D10,K$20:L$20)))+K$24-2*LN(K$3)</f>
         <v>10.224172400211502</v>
       </c>
       <c r="F10" s="3">
-        <f t="array" ref="F10">MMULT(MMULT(TRANSPOSE([1]!MSUB(TRANSPOSE(C10:D10),N$20:N$21)),MINVERSE(N$16:O$17)),[1]!MSUB(TRANSPOSE(C10:D10),N$20:N$21))+N$24-2*LN(N$3)</f>
+        <f t="array" ref="F10">MMULT(MMULT([2]!MSUB(C10:D10,N$20:O$20),MINVERSE(N$16:O$17)),TRANSPOSE([2]!MSUB(C10:D10,N$20:O$20)))+N$24-2*LN(N$3)</f>
         <v>-0.97906145952401658</v>
       </c>
       <c r="G10" s="3">
@@ -1885,8 +1943,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.4">
-      <c r="A11" s="9"/>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.45">
+      <c r="A11" s="10"/>
       <c r="B11" s="5">
         <v>2</v>
       </c>
@@ -1897,11 +1955,11 @@
         <v>-1.6</v>
       </c>
       <c r="E11" s="3">
-        <f t="array" ref="E11">MMULT(MMULT(TRANSPOSE([1]!MSUB(TRANSPOSE(C11:D11),K$20:K$21)),MINVERSE(K$16:L$17)),[1]!MSUB(TRANSPOSE(C11:D11),K$20:K$21))+K$24-2*LN(K$3)</f>
+        <f t="array" ref="E11">MMULT(MMULT([2]!MSUB(C11:D11,K$20:L$20),MINVERSE(K$16:L$17)),TRANSPOSE([2]!MSUB(C11:D11,K$20:L$20)))+K$24-2*LN(K$3)</f>
         <v>2.8145064903834198</v>
       </c>
       <c r="F11" s="3">
-        <f t="array" ref="F11">MMULT(MMULT(TRANSPOSE([1]!MSUB(TRANSPOSE(C11:D11),N$20:N$21)),MINVERSE(N$16:O$17)),[1]!MSUB(TRANSPOSE(C11:D11),N$20:N$21))+N$24-2*LN(N$3)</f>
+        <f t="array" ref="F11">MMULT(MMULT([2]!MSUB(C11:D11,N$20:O$20),MINVERSE(N$16:O$17)),TRANSPOSE([2]!MSUB(C11:D11,N$20:O$20)))+N$24-2*LN(N$3)</f>
         <v>0.22638258554686863</v>
       </c>
       <c r="G11" s="3">
@@ -1917,8 +1975,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.4">
-      <c r="A12" s="9"/>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.45">
+      <c r="A12" s="10"/>
       <c r="B12" s="5">
         <v>2</v>
       </c>
@@ -1929,11 +1987,11 @@
         <v>-1.5</v>
       </c>
       <c r="E12" s="3">
-        <f t="array" ref="E12">MMULT(MMULT(TRANSPOSE([1]!MSUB(TRANSPOSE(C12:D12),K$20:K$21)),MINVERSE(K$16:L$17)),[1]!MSUB(TRANSPOSE(C12:D12),K$20:K$21))+K$24-2*LN(K$3)</f>
+        <f t="array" ref="E12">MMULT(MMULT([2]!MSUB(C12:D12,K$20:L$20),MINVERSE(K$16:L$17)),TRANSPOSE([2]!MSUB(C12:D12,K$20:L$20)))+K$24-2*LN(K$3)</f>
         <v>3.243471783928666</v>
       </c>
       <c r="F12" s="3">
-        <f t="array" ref="F12">MMULT(MMULT(TRANSPOSE([1]!MSUB(TRANSPOSE(C12:D12),N$20:N$21)),MINVERSE(N$16:O$17)),[1]!MSUB(TRANSPOSE(C12:D12),N$20:N$21))+N$24-2*LN(N$3)</f>
+        <f t="array" ref="F12">MMULT(MMULT([2]!MSUB(C12:D12,N$20:O$20),MINVERSE(N$16:O$17)),TRANSPOSE([2]!MSUB(C12:D12,N$20:O$20)))+N$24-2*LN(N$3)</f>
         <v>-0.62829816240354397</v>
       </c>
       <c r="G12" s="3">
@@ -1949,8 +2007,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.4">
-      <c r="A13" s="9"/>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.45">
+      <c r="A13" s="10"/>
       <c r="B13" s="5">
         <v>2</v>
       </c>
@@ -1961,11 +2019,11 @@
         <v>-1</v>
       </c>
       <c r="E13" s="3">
-        <f t="array" ref="E13">MMULT(MMULT(TRANSPOSE([1]!MSUB(TRANSPOSE(C13:D13),K$20:K$21)),MINVERSE(K$16:L$17)),[1]!MSUB(TRANSPOSE(C13:D13),K$20:K$21))+K$24-2*LN(K$3)</f>
+        <f t="array" ref="E13">MMULT(MMULT([2]!MSUB(C13:D13,K$20:L$20),MINVERSE(K$16:L$17)),TRANSPOSE([2]!MSUB(C13:D13,K$20:L$20)))+K$24-2*LN(K$3)</f>
         <v>7.5461599123749892</v>
       </c>
       <c r="F13" s="3">
-        <f t="array" ref="F13">MMULT(MMULT(TRANSPOSE([1]!MSUB(TRANSPOSE(C13:D13),N$20:N$21)),MINVERSE(N$16:O$17)),[1]!MSUB(TRANSPOSE(C13:D13),N$20:N$21))+N$24-2*LN(N$3)</f>
+        <f t="array" ref="F13">MMULT(MMULT([2]!MSUB(C13:D13,N$20:O$20),MINVERSE(N$16:O$17)),TRANSPOSE([2]!MSUB(C13:D13,N$20:O$20)))+N$24-2*LN(N$3)</f>
         <v>-1.5041109324855355</v>
       </c>
       <c r="G13" s="3">
@@ -1981,8 +2039,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:24" ht="14.65" x14ac:dyDescent="0.4">
-      <c r="A14" s="9"/>
+    <row r="14" spans="1:24" ht="14.7" x14ac:dyDescent="0.45">
+      <c r="A14" s="10"/>
       <c r="B14" s="5">
         <v>2</v>
       </c>
@@ -1993,11 +2051,11 @@
         <v>-1.2</v>
       </c>
       <c r="E14" s="3">
-        <f t="array" ref="E14">MMULT(MMULT(TRANSPOSE([1]!MSUB(TRANSPOSE(C14:D14),K$20:K$21)),MINVERSE(K$16:L$17)),[1]!MSUB(TRANSPOSE(C14:D14),K$20:K$21))+K$24-2*LN(K$3)</f>
+        <f t="array" ref="E14">MMULT(MMULT([2]!MSUB(C14:D14,K$20:L$20),MINVERSE(K$16:L$17)),TRANSPOSE([2]!MSUB(C14:D14,K$20:L$20)))+K$24-2*LN(K$3)</f>
         <v>5.4806393155537041</v>
       </c>
       <c r="F14" s="3">
-        <f t="array" ref="F14">MMULT(MMULT(TRANSPOSE([1]!MSUB(TRANSPOSE(C14:D14),N$20:N$21)),MINVERSE(N$16:O$17)),[1]!MSUB(TRANSPOSE(C14:D14),N$20:N$21))+N$24-2*LN(N$3)</f>
+        <f t="array" ref="F14">MMULT(MMULT([2]!MSUB(C14:D14,N$20:O$20),MINVERSE(N$16:O$17)),TRANSPOSE([2]!MSUB(C14:D14,N$20:O$20)))+N$24-2*LN(N$3)</f>
         <v>-2.5382371794060887</v>
       </c>
       <c r="G14" s="3">
@@ -2016,8 +2074,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.4">
-      <c r="A15" s="9"/>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.45">
+      <c r="A15" s="10"/>
       <c r="B15" s="5">
         <v>2</v>
       </c>
@@ -2028,11 +2086,11 @@
         <v>-1.3</v>
       </c>
       <c r="E15" s="3">
-        <f t="array" ref="E15">MMULT(MMULT(TRANSPOSE([1]!MSUB(TRANSPOSE(C15:D15),K$20:K$21)),MINVERSE(K$16:L$17)),[1]!MSUB(TRANSPOSE(C15:D15),K$20:K$21))+K$24-2*LN(K$3)</f>
+        <f t="array" ref="E15">MMULT(MMULT([2]!MSUB(C15:D15,K$20:L$20),MINVERSE(K$16:L$17)),TRANSPOSE([2]!MSUB(C15:D15,K$20:L$20)))+K$24-2*LN(K$3)</f>
         <v>6.8487872234356502</v>
       </c>
       <c r="F15" s="3">
-        <f t="array" ref="F15">MMULT(MMULT(TRANSPOSE([1]!MSUB(TRANSPOSE(C15:D15),N$20:N$21)),MINVERSE(N$16:O$17)),[1]!MSUB(TRANSPOSE(C15:D15),N$20:N$21))+N$24-2*LN(N$3)</f>
+        <f t="array" ref="F15">MMULT(MMULT([2]!MSUB(C15:D15,N$20:O$20),MINVERSE(N$16:O$17)),TRANSPOSE([2]!MSUB(C15:D15,N$20:O$20)))+N$24-2*LN(N$3)</f>
         <v>-0.41648321147264888</v>
       </c>
       <c r="G15" s="3">
@@ -2054,7 +2112,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.45">
       <c r="K16" s="1">
         <f>_xlfn.COVARIANCE.S(C2:C7,C2:C7)</f>
         <v>2.2136666666666658</v>
@@ -2072,7 +2130,7 @@
         <v>-6.3214285714285667E-2</v>
       </c>
     </row>
-    <row r="17" spans="11:22" x14ac:dyDescent="0.4">
+    <row r="17" spans="11:22" x14ac:dyDescent="0.45">
       <c r="K17" s="1">
         <f>_xlfn.COVARIANCE.S(C2:C7,D2:D7)</f>
         <v>-0.65766666666666662</v>
@@ -2090,7 +2148,7 @@
         <v>0.10696428571428573</v>
       </c>
     </row>
-    <row r="19" spans="11:22" x14ac:dyDescent="0.4">
+    <row r="19" spans="11:22" x14ac:dyDescent="0.45">
       <c r="K19" s="1" t="s">
         <v>21</v>
       </c>
@@ -2098,27 +2156,25 @@
         <v>22</v>
       </c>
     </row>
-    <row r="20" spans="11:22" x14ac:dyDescent="0.4">
+    <row r="20" spans="11:22" x14ac:dyDescent="0.45">
       <c r="K20" s="1">
         <f>AVERAGE(C2:C7)</f>
         <v>25.316666666666666</v>
       </c>
+      <c r="L20" s="1">
+        <f>AVERAGE(D2:D7)</f>
+        <v>-2.4166666666666665</v>
+      </c>
       <c r="N20" s="1">
         <f>AVERAGE(C8:C15)</f>
         <v>22.024999999999999</v>
       </c>
-    </row>
-    <row r="21" spans="11:22" x14ac:dyDescent="0.4">
-      <c r="K21" s="1">
-        <f>AVERAGE(D2:D7)</f>
-        <v>-2.4166666666666665</v>
-      </c>
-      <c r="N21" s="1">
+      <c r="O20" s="1">
         <f>AVERAGE(D8:D15)</f>
         <v>-1.1875</v>
       </c>
     </row>
-    <row r="23" spans="11:22" x14ac:dyDescent="0.4">
+    <row r="23" spans="11:22" x14ac:dyDescent="0.45">
       <c r="K23" s="1" t="s">
         <v>23</v>
       </c>
@@ -2126,7 +2182,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="24" spans="11:22" x14ac:dyDescent="0.4">
+    <row r="24" spans="11:22" x14ac:dyDescent="0.45">
       <c r="K24" s="1">
         <f>LN([1]!DET(K16:L17))</f>
         <v>-1.8052906035124066</v>
@@ -2136,33 +2192,33 @@
         <v>-3.6782827369416506</v>
       </c>
     </row>
-    <row r="27" spans="11:22" ht="18.5" x14ac:dyDescent="0.5">
+    <row r="27" spans="11:22" ht="18.350000000000001" x14ac:dyDescent="0.55000000000000004">
       <c r="V27" s="7" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="28" spans="11:22" ht="21.95" x14ac:dyDescent="0.7">
+    <row r="28" spans="11:22" ht="22.35" x14ac:dyDescent="0.8">
       <c r="V28" s="7" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="29" spans="11:22" ht="20.45" x14ac:dyDescent="0.5">
+    <row r="29" spans="11:22" ht="20.7" x14ac:dyDescent="0.55000000000000004">
       <c r="V29" s="7" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="30" spans="11:22" ht="21.95" x14ac:dyDescent="0.7">
+    <row r="30" spans="11:22" ht="22.35" x14ac:dyDescent="0.8">
       <c r="V30" s="7" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="32" spans="11:22" ht="14.65" x14ac:dyDescent="0.4">
+    <row r="32" spans="11:22" ht="14.7" x14ac:dyDescent="0.45">
       <c r="V32" s="2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="22:22" x14ac:dyDescent="0.4">
-      <c r="V33" s="10" t="s">
+    <row r="33" spans="22:22" x14ac:dyDescent="0.45">
+      <c r="V33" s="9" t="s">
         <v>30</v>
       </c>
     </row>
@@ -2188,15 +2244,15 @@
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>10</xdr:col>
-                <xdr:colOff>44009</xdr:colOff>
+                <xdr:colOff>42333</xdr:colOff>
                 <xdr:row>5</xdr:row>
-                <xdr:rowOff>63568</xdr:rowOff>
+                <xdr:rowOff>63500</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>20</xdr:col>
-                <xdr:colOff>171144</xdr:colOff>
+                <xdr:colOff>169333</xdr:colOff>
                 <xdr:row>7</xdr:row>
-                <xdr:rowOff>122246</xdr:rowOff>
+                <xdr:rowOff>122767</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
@@ -2213,15 +2269,15 @@
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>10</xdr:col>
-                <xdr:colOff>19559</xdr:colOff>
+                <xdr:colOff>21167</xdr:colOff>
                 <xdr:row>9</xdr:row>
-                <xdr:rowOff>83127</xdr:rowOff>
+                <xdr:rowOff>84667</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>18</xdr:col>
-                <xdr:colOff>532993</xdr:colOff>
+                <xdr:colOff>533400</xdr:colOff>
                 <xdr:row>12</xdr:row>
-                <xdr:rowOff>24449</xdr:rowOff>
+                <xdr:rowOff>25400</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
@@ -2233,27 +2289,27 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject shapeId="1027" r:id="rId10">
+        <oleObject progId="PBrush" shapeId="1027" r:id="rId10">
           <objectPr defaultSize="0" autoPict="0" r:id="rId11">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>21</xdr:col>
-                <xdr:colOff>24449</xdr:colOff>
+                <xdr:colOff>25400</xdr:colOff>
                 <xdr:row>1</xdr:row>
-                <xdr:rowOff>112466</xdr:rowOff>
+                <xdr:rowOff>114300</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>26</xdr:col>
-                <xdr:colOff>224933</xdr:colOff>
+                <xdr:colOff>224367</xdr:colOff>
                 <xdr:row>4</xdr:row>
-                <xdr:rowOff>29339</xdr:rowOff>
+                <xdr:rowOff>29633</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject shapeId="1027" r:id="rId10"/>
+        <oleObject progId="PBrush" shapeId="1027" r:id="rId10"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -2263,15 +2319,15 @@
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>2</xdr:col>
-                <xdr:colOff>356958</xdr:colOff>
+                <xdr:colOff>355600</xdr:colOff>
                 <xdr:row>17</xdr:row>
-                <xdr:rowOff>88017</xdr:rowOff>
+                <xdr:rowOff>88900</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>8</xdr:col>
-                <xdr:colOff>327619</xdr:colOff>
+                <xdr:colOff>325967</xdr:colOff>
                 <xdr:row>23</xdr:row>
-                <xdr:rowOff>34229</xdr:rowOff>
+                <xdr:rowOff>33867</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>

--- a/5 discriminant analysis/5.2 Bayes判别.xlsx
+++ b/5 discriminant analysis/5.2 Bayes判别.xlsx
@@ -1575,7 +1575,7 @@
   <dimension ref="A1:X33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.05859375" defaultRowHeight="14" x14ac:dyDescent="0.45"/>
